--- a/db_files/entries_2022.xlsx
+++ b/db_files/entries_2022.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="entries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t>Czech Republic</t>
   </si>
@@ -67,6 +67,369 @@
   </si>
   <si>
     <t>Way Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albania</t>
+  </si>
+  <si>
+    <t>Ronela Hajati</t>
+  </si>
+  <si>
+    <t>Sekret</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bulgaria</t>
+  </si>
+  <si>
+    <t>Intelligent Music Project</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latvia</t>
+  </si>
+  <si>
+    <t>Eat Your Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lithuania</t>
+  </si>
+  <si>
+    <t>Monika Liu</t>
+  </si>
+  <si>
+    <t>Sentimentai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Netherlands</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>De diepte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slovenia</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>Disko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Switzerland</t>
+  </si>
+  <si>
+    <t>Marius Bear</t>
+  </si>
+  <si>
+    <t>Boys Do Cry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ukraine</t>
+  </si>
+  <si>
+    <t>Kalush Orchestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armenia</t>
+  </si>
+  <si>
+    <t>Rosa Linn</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austria</t>
+  </si>
+  <si>
+    <t>Lumix feat. Pia Maria</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Croatia</t>
+  </si>
+  <si>
+    <t>Guilty Pleasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denmark</t>
+  </si>
+  <si>
+    <t>Reddi</t>
+  </si>
+  <si>
+    <t>The Show</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greece</t>
+  </si>
+  <si>
+    <t>Amanda Georgiadi Tenfjord</t>
+  </si>
+  <si>
+    <t>Die Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iceland</t>
+  </si>
+  <si>
+    <t>Systur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norway</t>
+  </si>
+  <si>
+    <t>Subwoolfer</t>
+  </si>
+  <si>
+    <t>Give That Wolf a Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portugal</t>
+  </si>
+  <si>
+    <t>Maro</t>
+  </si>
+  <si>
+    <t>Saudade, saudade</t>
+  </si>
+  <si>
+    <t>Citi Zēni</t>
+  </si>
+  <si>
+    <t>Zdob și Zdub and Frații Advahov</t>
+  </si>
+  <si>
+    <t>Trenulețul</t>
+  </si>
+  <si>
+    <t>Stefania (Стефанія)</t>
+  </si>
+  <si>
+    <t>Mia Dimšić</t>
+  </si>
+  <si>
+    <t>Með hækkandi sól</t>
+  </si>
+  <si>
+    <t>First Semi-Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia</t>
+  </si>
+  <si>
+    <t>Sheldon Riley</t>
+  </si>
+  <si>
+    <t>Not the Same</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Azerbaijan</t>
+  </si>
+  <si>
+    <t>Nadir Rustamli</t>
+  </si>
+  <si>
+    <t>Fade to Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyprus</t>
+  </si>
+  <si>
+    <t>Andromache</t>
+  </si>
+  <si>
+    <t>Ela (Έλα)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finland</t>
+  </si>
+  <si>
+    <t>The Rasmus</t>
+  </si>
+  <si>
+    <t>Jezebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia</t>
+  </si>
+  <si>
+    <t>Circus Mircus</t>
+  </si>
+  <si>
+    <t>Lock Me In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Israel</t>
+  </si>
+  <si>
+    <t>Michael Ben David</t>
+  </si>
+  <si>
+    <t>I.M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malta</t>
+  </si>
+  <si>
+    <t>Emma Muscat</t>
+  </si>
+  <si>
+    <t>I Am What I Am</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Marino</t>
+  </si>
+  <si>
+    <t>Achille Lauro</t>
+  </si>
+  <si>
+    <t>Stripper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serbia</t>
+  </si>
+  <si>
+    <t>Konstrakta</t>
+  </si>
+  <si>
+    <t>In corpore sano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgium</t>
+  </si>
+  <si>
+    <t>Jérémie Makiese</t>
+  </si>
+  <si>
+    <t>Miss You</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estonia</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ireland</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>That's Rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montenegro</t>
+  </si>
+  <si>
+    <t>Vladana</t>
+  </si>
+  <si>
+    <t>Breathe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Macedonia</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poland</t>
+  </si>
+  <si>
+    <t>Ochman</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romania</t>
+  </si>
+  <si>
+    <t>WRS</t>
+  </si>
+  <si>
+    <t>Llámame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sweden</t>
+  </si>
+  <si>
+    <t>Cornelia Jakobs</t>
+  </si>
+  <si>
+    <t>Hold Me Closer</t>
+  </si>
+  <si>
+    <t>Second Semi-Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy</t>
+  </si>
+  <si>
+    <t>Mahmood and Blanco</t>
+  </si>
+  <si>
+    <t>Brividi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+  </si>
+  <si>
+    <t>Alvan and Ahez</t>
+  </si>
+  <si>
+    <t>Fulenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+  </si>
+  <si>
+    <t>Malik Harris</t>
+  </si>
+  <si>
+    <t>Rockstars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spain</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>SloMo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Kingdom</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
+  </si>
+  <si>
+    <t>Space Man</t>
+  </si>
+  <si>
+    <t>Grand Final</t>
   </si>
 </sst>
 </file>
@@ -874,19 +1237,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G1:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1052,6 +1415,926 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>2022</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>2022</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27">
+        <v>2022</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>2022</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>2022</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>2022</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>2022</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <v>2022</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34">
+        <v>2022</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>2022</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36">
+        <v>2022</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>2022</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38">
+        <v>2022</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>2022</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40">
+        <v>2022</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41">
+        <v>2022</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43">
+        <v>2022</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44">
+        <v>2022</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45">
+        <v>2022</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46">
+        <v>2022</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>2022</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/db_files/entries_2022.xlsx
+++ b/db_files/entries_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
   <si>
     <t>Czech Republic</t>
   </si>
@@ -430,6 +430,210 @@
   </si>
   <si>
     <t>Grand Final</t>
+  </si>
+  <si>
+    <t>Heat 1</t>
+  </si>
+  <si>
+    <t>Yam Haus</t>
+  </si>
+  <si>
+    <t>Ready to Go</t>
+  </si>
+  <si>
+    <t>AleXa</t>
+  </si>
+  <si>
+    <t>Wonderland</t>
+  </si>
+  <si>
+    <t>Kelsey Lamb</t>
+  </si>
+  <si>
+    <t>Never Like This</t>
+  </si>
+  <si>
+    <t>UG skywalkin ft. Maxie</t>
+  </si>
+  <si>
+    <t>Love in My City</t>
+  </si>
+  <si>
+    <t>Christian Pagán</t>
+  </si>
+  <si>
+    <t>Loko</t>
+  </si>
+  <si>
+    <t>Michael Bolton</t>
+  </si>
+  <si>
+    <t>Beautiful World</t>
+  </si>
+  <si>
+    <t>Alisabeth Von Presley</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Jake'O</t>
+  </si>
+  <si>
+    <t>Feel Your Love</t>
+  </si>
+  <si>
+    <t>Keyone Starr</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Ryan Charles</t>
+  </si>
+  <si>
+    <t>New Boot Goofin'</t>
+  </si>
+  <si>
+    <t>Hueston</t>
+  </si>
+  <si>
+    <t>Held On Too Long</t>
+  </si>
+  <si>
+    <t>US, Minnesota</t>
+  </si>
+  <si>
+    <t>US, Oklahoma</t>
+  </si>
+  <si>
+    <t>US, Arkansas</t>
+  </si>
+  <si>
+    <t>US, Indiana</t>
+  </si>
+  <si>
+    <t>US, Connecticut</t>
+  </si>
+  <si>
+    <t>US, Iowa</t>
+  </si>
+  <si>
+    <t>US, Wisconsin</t>
+  </si>
+  <si>
+    <t>US, Mississippi</t>
+  </si>
+  <si>
+    <t>US, Wyoming</t>
+  </si>
+  <si>
+    <t>US, Rhode Island</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Broderick Jones (ft. Calio)</t>
+  </si>
+  <si>
+    <t>Tell Me</t>
+  </si>
+  <si>
+    <t>Jordan Smith</t>
+  </si>
+  <si>
+    <t>Sparrow</t>
+  </si>
+  <si>
+    <t>King Kyote</t>
+  </si>
+  <si>
+    <t>Get Out Alive</t>
+  </si>
+  <si>
+    <t>Jonah Prill</t>
+  </si>
+  <si>
+    <t>Fire It Up</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Never Alone</t>
+  </si>
+  <si>
+    <t>ENISA</t>
+  </si>
+  <si>
+    <t>“Green Light”</t>
+  </si>
+  <si>
+    <t>Chloe Fredericks</t>
+  </si>
+  <si>
+    <t>Can't Make You Love Me</t>
+  </si>
+  <si>
+    <t>Macy Gray</t>
+  </si>
+  <si>
+    <t>Every Night</t>
+  </si>
+  <si>
+    <t>courtship.</t>
+  </si>
+  <si>
+    <t>Million Dollar Smoothies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>Cruz Rock</t>
+  </si>
+  <si>
+    <t>Celebrando</t>
+  </si>
+  <si>
+    <t>Almira Zaky</t>
+  </si>
+  <si>
+    <t>Over You</t>
+  </si>
+  <si>
+    <t>Heat 2</t>
+  </si>
+  <si>
+    <t>US, Kansas</t>
+  </si>
+  <si>
+    <t>US, Kentucky</t>
+  </si>
+  <si>
+    <t>US, Maine</t>
+  </si>
+  <si>
+    <t>US, Montana</t>
+  </si>
+  <si>
+    <t>US, Nebraska</t>
+  </si>
+  <si>
+    <t>US, New York</t>
+  </si>
+  <si>
+    <t>US, North Dakota</t>
+  </si>
+  <si>
+    <t>US, Ohio</t>
+  </si>
+  <si>
+    <t>US, Oregon</t>
+  </si>
+  <si>
+    <t>US, Virginia</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1650,7 @@
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1469,7 +1673,7 @@
         <v>2022</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1492,7 +1696,7 @@
         <v>2022</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1515,7 +1719,7 @@
         <v>2022</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1538,7 +1742,7 @@
         <v>2022</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -1561,7 +1765,7 @@
         <v>2022</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -1584,7 +1788,7 @@
         <v>2022</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1607,7 +1811,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -1630,7 +1834,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -1653,7 +1857,7 @@
         <v>2022</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -1676,7 +1880,7 @@
         <v>2022</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1699,7 +1903,7 @@
         <v>2022</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1722,7 +1926,7 @@
         <v>2022</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1745,7 +1949,7 @@
         <v>2022</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -1791,7 +1995,7 @@
         <v>2022</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
@@ -1814,7 +2018,7 @@
         <v>2022</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -1837,7 +2041,7 @@
         <v>2022</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -1860,7 +2064,7 @@
         <v>2022</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -1883,7 +2087,7 @@
         <v>2022</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -1929,7 +2133,7 @@
         <v>2022</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -1952,7 +2156,7 @@
         <v>2022</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -1975,7 +2179,7 @@
         <v>2022</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
@@ -1998,7 +2202,7 @@
         <v>2022</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -2021,7 +2225,7 @@
         <v>2022</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -2044,7 +2248,7 @@
         <v>2022</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -2090,7 +2294,7 @@
         <v>2022</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>102</v>
@@ -2113,7 +2317,7 @@
         <v>2022</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
         <v>105</v>
@@ -2136,7 +2340,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>108</v>
@@ -2159,7 +2363,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -2182,7 +2386,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>114</v>
@@ -2205,7 +2409,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>117</v>
@@ -2332,6 +2536,512 @@
         <v>135</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48">
+        <v>2022</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49">
+        <v>2022</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50">
+        <v>2022</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51">
+        <v>2022</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52">
+        <v>2022</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53">
+        <v>2022</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55">
+        <v>2022</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56">
+        <v>2022</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57">
+        <v>2022</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58">
+        <v>2022</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59">
+        <v>2022</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60">
+        <v>2022</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61">
+        <v>2022</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62">
+        <v>2022</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63">
+        <v>2022</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64">
+        <v>2022</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65">
+        <v>2022</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66">
+        <v>2022</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67">
+        <v>2022</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68">
+        <v>2022</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69">
+        <v>2022</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69">
         <v>0</v>
       </c>
     </row>

--- a/db_files/entries_2022.xlsx
+++ b/db_files/entries_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Григорий\PycharmProjects\eurovision\db_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Григорий\PycharmProjects\eurovision-app\db_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="242">
   <si>
     <t>Czech Republic</t>
   </si>
@@ -634,6 +634,117 @@
   </si>
   <si>
     <t>US, Virginia</t>
+  </si>
+  <si>
+    <t>Ni/Co</t>
+  </si>
+  <si>
+    <t>The Difference</t>
+  </si>
+  <si>
+    <t>Jewel</t>
+  </si>
+  <si>
+    <t>The Story</t>
+  </si>
+  <si>
+    <t>Riker Lynch</t>
+  </si>
+  <si>
+    <t>Feel the Love</t>
+  </si>
+  <si>
+    <t>Nitro Nitra</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Ale Zabala</t>
+  </si>
+  <si>
+    <t>Flirt</t>
+  </si>
+  <si>
+    <t>Brittany Pfantz</t>
+  </si>
+  <si>
+    <t>Now You Do</t>
+  </si>
+  <si>
+    <t>Brooke Alexx</t>
+  </si>
+  <si>
+    <t>I Don't Take Pictures Anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Sabyu</t>
+  </si>
+  <si>
+    <t>Sunsets and Seaturtles</t>
+  </si>
+  <si>
+    <t>Jesse LeProtti</t>
+  </si>
+  <si>
+    <t>Not Alone</t>
+  </si>
+  <si>
+    <t>Judd Hoos</t>
+  </si>
+  <si>
+    <t>Bad Girl</t>
+  </si>
+  <si>
+    <t>Tyler Braden</t>
+  </si>
+  <si>
+    <t>Seventeen</t>
+  </si>
+  <si>
+    <t>Grant Knoche</t>
+  </si>
+  <si>
+    <t>Mr. Independent</t>
+  </si>
+  <si>
+    <t>Heat 3</t>
+  </si>
+  <si>
+    <t>US, Alabama</t>
+  </si>
+  <si>
+    <t>US, Alaska</t>
+  </si>
+  <si>
+    <t>US, Colorado</t>
+  </si>
+  <si>
+    <t>US, Delaware</t>
+  </si>
+  <si>
+    <t>US, Florida</t>
+  </si>
+  <si>
+    <t>US, Louisiana</t>
+  </si>
+  <si>
+    <t>US, New Jersey</t>
+  </si>
+  <si>
+    <t>US, South Carolina</t>
+  </si>
+  <si>
+    <t>US, South Dakota</t>
+  </si>
+  <si>
+    <t>US, Tennessee</t>
+  </si>
+  <si>
+    <t>US, Texas</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1563,7 @@
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
@@ -3045,6 +3156,282 @@
         <v>0</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70">
+        <v>2022</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71">
+        <v>2022</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72">
+        <v>2022</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>209</v>
+      </c>
+      <c r="F72" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73">
+        <v>2022</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74">
+        <v>2022</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F74" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75">
+        <v>2022</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76">
+        <v>2022</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" t="s">
+        <v>217</v>
+      </c>
+      <c r="F76" t="s">
+        <v>218</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77">
+        <v>2022</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78">
+        <v>2022</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79">
+        <v>2022</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80">
+        <v>2022</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" t="s">
+        <v>226</v>
+      </c>
+      <c r="F80" t="s">
+        <v>227</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81">
+        <v>2022</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/db_files/entries_2022.xlsx
+++ b/db_files/entries_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="316">
   <si>
     <t>Czech Republic</t>
   </si>
@@ -745,6 +745,228 @@
   </si>
   <si>
     <t>US, Texas</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>The Crystal Method</t>
+  </si>
+  <si>
+    <t>Watch Me Now</t>
+  </si>
+  <si>
+    <t>Savannah Keyes</t>
+  </si>
+  <si>
+    <t>Sad Girl</t>
+  </si>
+  <si>
+    <t>Nëither</t>
+  </si>
+  <si>
+    <t>I Like It</t>
+  </si>
+  <si>
+    <t>Jared Lee</t>
+  </si>
+  <si>
+    <t>Shameless</t>
+  </si>
+  <si>
+    <t>Stela Cole</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>Bronson Varde</t>
+  </si>
+  <si>
+    <t>4 You</t>
+  </si>
+  <si>
+    <t>Alexis Cunningham</t>
+  </si>
+  <si>
+    <t>Working on a Miracle</t>
+  </si>
+  <si>
+    <t>Las Marías</t>
+  </si>
+  <si>
+    <t>De La Finikera</t>
+  </si>
+  <si>
+    <t>Bri Steves</t>
+  </si>
+  <si>
+    <t>Plenty Love</t>
+  </si>
+  <si>
+    <t>Allen Stone</t>
+  </si>
+  <si>
+    <t>A Bit of Both</t>
+  </si>
+  <si>
+    <t>Heat 4</t>
+  </si>
+  <si>
+    <t>US, New Hampshire</t>
+  </si>
+  <si>
+    <t>US, Nevada</t>
+  </si>
+  <si>
+    <t>US, Utah</t>
+  </si>
+  <si>
+    <t>US, Washington, D.C.</t>
+  </si>
+  <si>
+    <t>US, Massachusetts</t>
+  </si>
+  <si>
+    <t>US, Georgia</t>
+  </si>
+  <si>
+    <t>US, Hawaii</t>
+  </si>
+  <si>
+    <t>US, West Virginia</t>
+  </si>
+  <si>
+    <t>US, Arizona</t>
+  </si>
+  <si>
+    <t>US, Pennsylvania</t>
+  </si>
+  <si>
+    <t>US, Washington</t>
+  </si>
+  <si>
+    <t>Justin Jesso</t>
+  </si>
+  <si>
+    <t>Lifeline</t>
+  </si>
+  <si>
+    <t>Sweet Taboo</t>
+  </si>
+  <si>
+    <t>Keys to the Kingdom</t>
+  </si>
+  <si>
+    <t>Andrew Sheppard</t>
+  </si>
+  <si>
+    <t>Steady Machine</t>
+  </si>
+  <si>
+    <t>Khalisol</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Halie</t>
+  </si>
+  <si>
+    <t>Better Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Samoa</t>
+  </si>
+  <si>
+    <t>Tenelle</t>
+  </si>
+  <si>
+    <t>Full Circle</t>
+  </si>
+  <si>
+    <t>John Morgan</t>
+  </si>
+  <si>
+    <t>Right in the Middle</t>
+  </si>
+  <si>
+    <t>Josh Panda</t>
+  </si>
+  <si>
+    <t>Rollercoaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guam</t>
+  </si>
+  <si>
+    <t>Jason J.</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>Ada LeAnn</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Sisqó</t>
+  </si>
+  <si>
+    <t>It's Up</t>
+  </si>
+  <si>
+    <t>US, Illinois</t>
+  </si>
+  <si>
+    <t>US, California</t>
+  </si>
+  <si>
+    <t>US, Idaho</t>
+  </si>
+  <si>
+    <t>US, New Mexico</t>
+  </si>
+  <si>
+    <t>US, Missouri</t>
+  </si>
+  <si>
+    <t>US, North Carolina</t>
+  </si>
+  <si>
+    <t>US, Vermont</t>
+  </si>
+  <si>
+    <t>US, Michigan</t>
+  </si>
+  <si>
+    <t>US, Maryland</t>
+  </si>
+  <si>
+    <t>Heat 5</t>
+  </si>
+  <si>
+    <t>Broderick Jones</t>
+  </si>
+  <si>
+    <t>Enisa</t>
+  </si>
+  <si>
+    <t>Green Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puerto Rico</t>
+  </si>
+  <si>
+    <t>First Semi-Final, ASC</t>
+  </si>
+  <si>
+    <t>Second Semi-Final, ASC</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3432,6 +3654,1018 @@
         <v>0</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82">
+        <v>2022</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>242</v>
+      </c>
+      <c r="F82" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83">
+        <v>2022</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>244</v>
+      </c>
+      <c r="F83" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84">
+        <v>2022</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" t="s">
+        <v>246</v>
+      </c>
+      <c r="F84" t="s">
+        <v>247</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85">
+        <v>2022</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86">
+        <v>2022</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87">
+        <v>2022</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" t="s">
+        <v>253</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88">
+        <v>2022</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" t="s">
+        <v>255</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89">
+        <v>2022</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" t="s">
+        <v>257</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90">
+        <v>2022</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>258</v>
+      </c>
+      <c r="F90" t="s">
+        <v>259</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91">
+        <v>2022</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" t="s">
+        <v>261</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92">
+        <v>2022</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" t="s">
+        <v>263</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>309</v>
+      </c>
+      <c r="B93">
+        <v>2022</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" t="s">
+        <v>277</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94">
+        <v>2022</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94" t="s">
+        <v>278</v>
+      </c>
+      <c r="F94" t="s">
+        <v>279</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95">
+        <v>2022</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" t="s">
+        <v>280</v>
+      </c>
+      <c r="F95" t="s">
+        <v>281</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96">
+        <v>2022</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F96" t="s">
+        <v>283</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97">
+        <v>2022</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" t="s">
+        <v>284</v>
+      </c>
+      <c r="F97" t="s">
+        <v>285</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98">
+        <v>2022</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" t="s">
+        <v>287</v>
+      </c>
+      <c r="F98" t="s">
+        <v>288</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99">
+        <v>2022</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" t="s">
+        <v>289</v>
+      </c>
+      <c r="F99" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100">
+        <v>2022</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" t="s">
+        <v>291</v>
+      </c>
+      <c r="F100" t="s">
+        <v>292</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101">
+        <v>2022</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>309</v>
+      </c>
+      <c r="B102">
+        <v>2022</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" t="s">
+        <v>296</v>
+      </c>
+      <c r="F102" t="s">
+        <v>297</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103">
+        <v>2022</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>308</v>
+      </c>
+      <c r="E103" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" t="s">
+        <v>299</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104">
+        <v>2022</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" t="s">
+        <v>174</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105">
+        <v>2022</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>233</v>
+      </c>
+      <c r="E105" t="s">
+        <v>209</v>
+      </c>
+      <c r="F105" t="s">
+        <v>210</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106">
+        <v>2022</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" t="s">
+        <v>242</v>
+      </c>
+      <c r="F106" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107">
+        <v>2022</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" t="s">
+        <v>262</v>
+      </c>
+      <c r="F107" t="s">
+        <v>263</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108">
+        <v>2022</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>231</v>
+      </c>
+      <c r="E108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" t="s">
+        <v>206</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109">
+        <v>2022</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>314</v>
+      </c>
+      <c r="B110">
+        <v>2022</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" t="s">
+        <v>158</v>
+      </c>
+      <c r="F110" t="s">
+        <v>159</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>314</v>
+      </c>
+      <c r="B111">
+        <v>2022</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>198</v>
+      </c>
+      <c r="E111" t="s">
+        <v>177</v>
+      </c>
+      <c r="F111" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112">
+        <v>2022</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>307</v>
+      </c>
+      <c r="E112" t="s">
+        <v>296</v>
+      </c>
+      <c r="F112" t="s">
+        <v>297</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113">
+        <v>2022</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" t="s">
+        <v>250</v>
+      </c>
+      <c r="F113" t="s">
+        <v>251</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114">
+        <v>2022</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>161</v>
+      </c>
+      <c r="E114" t="s">
+        <v>140</v>
+      </c>
+      <c r="F114" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115">
+        <v>2022</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>286</v>
+      </c>
+      <c r="E115" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" t="s">
+        <v>288</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116">
+        <v>2022</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>301</v>
+      </c>
+      <c r="E116" t="s">
+        <v>278</v>
+      </c>
+      <c r="F116" t="s">
+        <v>279</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>315</v>
+      </c>
+      <c r="B117">
+        <v>2022</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" t="s">
+        <v>149</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118">
+        <v>2022</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>270</v>
+      </c>
+      <c r="E118" t="s">
+        <v>252</v>
+      </c>
+      <c r="F118" t="s">
+        <v>253</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119">
+        <v>2022</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" t="s">
+        <v>310</v>
+      </c>
+      <c r="F119" t="s">
+        <v>172</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>315</v>
+      </c>
+      <c r="B120">
+        <v>2022</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" t="s">
+        <v>311</v>
+      </c>
+      <c r="F120" t="s">
+        <v>312</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121">
+        <v>2022</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>305</v>
+      </c>
+      <c r="E121" t="s">
+        <v>289</v>
+      </c>
+      <c r="F121" t="s">
+        <v>290</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122">
+        <v>2022</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" t="s">
+        <v>183</v>
+      </c>
+      <c r="F122" t="s">
+        <v>184</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>315</v>
+      </c>
+      <c r="B123">
+        <v>2022</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" t="s">
+        <v>146</v>
+      </c>
+      <c r="F123" t="s">
+        <v>147</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>315</v>
+      </c>
+      <c r="B124">
+        <v>2022</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" t="s">
+        <v>227</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>315</v>
+      </c>
+      <c r="B125">
+        <v>2022</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E125" t="s">
+        <v>228</v>
+      </c>
+      <c r="F125" t="s">
+        <v>229</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/db_files/entries_2022.xlsx
+++ b/db_files/entries_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="318">
   <si>
     <t>Czech Republic</t>
   </si>
@@ -967,6 +967,12 @@
   </si>
   <si>
     <t>Second Semi-Final, ASC</t>
+  </si>
+  <si>
+    <t>Feel The Love</t>
+  </si>
+  <si>
+    <t>Grand Final, ASC</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:A125"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4666,6 +4672,236 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>317</v>
+      </c>
+      <c r="B126">
+        <v>2022</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" t="s">
+        <v>206</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>317</v>
+      </c>
+      <c r="B127">
+        <v>2022</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>286</v>
+      </c>
+      <c r="E127" t="s">
+        <v>287</v>
+      </c>
+      <c r="F127" t="s">
+        <v>288</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>317</v>
+      </c>
+      <c r="B128">
+        <v>2022</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>233</v>
+      </c>
+      <c r="E128" t="s">
+        <v>209</v>
+      </c>
+      <c r="F128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>317</v>
+      </c>
+      <c r="B129">
+        <v>2022</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" t="s">
+        <v>148</v>
+      </c>
+      <c r="F129" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>317</v>
+      </c>
+      <c r="B130">
+        <v>2022</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>196</v>
+      </c>
+      <c r="E130" t="s">
+        <v>173</v>
+      </c>
+      <c r="F130" t="s">
+        <v>174</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131">
+        <v>2022</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" t="s">
+        <v>183</v>
+      </c>
+      <c r="F131" t="s">
+        <v>184</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>317</v>
+      </c>
+      <c r="B132">
+        <v>2022</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F132" t="s">
+        <v>141</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133">
+        <v>2022</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>240</v>
+      </c>
+      <c r="E133" t="s">
+        <v>226</v>
+      </c>
+      <c r="F133" t="s">
+        <v>227</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134">
+        <v>2022</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>241</v>
+      </c>
+      <c r="E134" t="s">
+        <v>228</v>
+      </c>
+      <c r="F134" t="s">
+        <v>229</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135">
+        <v>2022</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
+        <v>263</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/db_files/entries_2022.xlsx
+++ b/db_files/entries_2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="319">
   <si>
     <t>Czech Republic</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>Grand Final, ASC</t>
+  </si>
+  <si>
+    <t>Zdob și Zdub and Advahov Brothers</t>
   </si>
 </sst>
 </file>
@@ -1780,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A160" sqref="A136:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4902,6 +4905,581 @@
         <v>0</v>
       </c>
     </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>2022</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2022</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" t="s">
+        <v>115</v>
+      </c>
+      <c r="F137" t="s">
+        <v>116</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>2022</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>2022</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" t="s">
+        <v>79</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <v>2022</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141">
+        <v>2022</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" t="s">
+        <v>125</v>
+      </c>
+      <c r="F141" t="s">
+        <v>126</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142">
+        <v>2022</v>
+      </c>
+      <c r="C142">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s">
+        <v>56</v>
+      </c>
+      <c r="F142" t="s">
+        <v>57</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>136</v>
+      </c>
+      <c r="B143">
+        <v>2022</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144">
+        <v>2022</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" t="s">
+        <v>122</v>
+      </c>
+      <c r="F144" t="s">
+        <v>123</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145">
+        <v>2022</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" t="s">
+        <v>131</v>
+      </c>
+      <c r="F145" t="s">
+        <v>132</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146">
+        <v>2022</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147">
+        <v>2022</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148">
+        <v>2022</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>127</v>
+      </c>
+      <c r="E148" t="s">
+        <v>128</v>
+      </c>
+      <c r="F148" t="s">
+        <v>129</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149">
+        <v>2022</v>
+      </c>
+      <c r="C149">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150">
+        <v>2022</v>
+      </c>
+      <c r="C150">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>71</v>
+      </c>
+      <c r="E150" t="s">
+        <v>72</v>
+      </c>
+      <c r="F150" t="s">
+        <v>73</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151">
+        <v>2022</v>
+      </c>
+      <c r="C151">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>95</v>
+      </c>
+      <c r="E151" t="s">
+        <v>96</v>
+      </c>
+      <c r="F151" t="s">
+        <v>97</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>136</v>
+      </c>
+      <c r="B152">
+        <v>2022</v>
+      </c>
+      <c r="C152">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" t="s">
+        <v>51</v>
+      </c>
+      <c r="F152" t="s">
+        <v>52</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>136</v>
+      </c>
+      <c r="B153">
+        <v>2022</v>
+      </c>
+      <c r="C153">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" t="s">
+        <v>54</v>
+      </c>
+      <c r="F153" t="s">
+        <v>66</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>136</v>
+      </c>
+      <c r="B154">
+        <v>2022</v>
+      </c>
+      <c r="C154">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" t="s">
+        <v>318</v>
+      </c>
+      <c r="F154" t="s">
+        <v>63</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155">
+        <v>2022</v>
+      </c>
+      <c r="C155">
+        <v>20</v>
+      </c>
+      <c r="D155" t="s">
+        <v>117</v>
+      </c>
+      <c r="E155" t="s">
+        <v>118</v>
+      </c>
+      <c r="F155" t="s">
+        <v>119</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156">
+        <v>2022</v>
+      </c>
+      <c r="C156">
+        <v>21</v>
+      </c>
+      <c r="D156" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" t="s">
+        <v>69</v>
+      </c>
+      <c r="F156" t="s">
+        <v>70</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157">
+        <v>2022</v>
+      </c>
+      <c r="C157">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" t="s">
+        <v>134</v>
+      </c>
+      <c r="F157" t="s">
+        <v>135</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>136</v>
+      </c>
+      <c r="B158">
+        <v>2022</v>
+      </c>
+      <c r="C158">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
+        <v>111</v>
+      </c>
+      <c r="E158" t="s">
+        <v>112</v>
+      </c>
+      <c r="F158" t="s">
+        <v>113</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159">
+        <v>2022</v>
+      </c>
+      <c r="C159">
+        <v>24</v>
+      </c>
+      <c r="D159" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" t="s">
+        <v>93</v>
+      </c>
+      <c r="F159" t="s">
+        <v>94</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160">
+        <v>2022</v>
+      </c>
+      <c r="C160">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" t="s">
+        <v>100</v>
+      </c>
+      <c r="F160" t="s">
+        <v>101</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
